--- a/01.04.19_MTT_Perkin_data/CC50_iter.xlsx
+++ b/01.04.19_MTT_Perkin_data/CC50_iter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="936" yWindow="888" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Drug</t>
   </si>
@@ -34,6 +34,36 @@
   </si>
   <si>
     <t>response</t>
+  </si>
+  <si>
+    <t>TT21</t>
+  </si>
+  <si>
+    <t>TT29</t>
+  </si>
+  <si>
+    <t>TT30</t>
+  </si>
+  <si>
+    <t>TT31</t>
+  </si>
+  <si>
+    <t>TT35</t>
+  </si>
+  <si>
+    <t>TT36</t>
+  </si>
+  <si>
+    <t>TT37</t>
+  </si>
+  <si>
+    <t>TT41</t>
+  </si>
+  <si>
+    <t>TT42</t>
+  </si>
+  <si>
+    <t>TT43</t>
   </si>
 </sst>
 </file>
@@ -372,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,7 +432,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>50</v>
@@ -413,12 +443,152 @@
         <v>4</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
         <v>50</v>
       </c>
     </row>
